--- a/results/结果表格.xlsx
+++ b/results/结果表格.xlsx
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.9" outlineLevelCol="6"/>
@@ -1816,7 +1816,7 @@
         <v>0.0540330111054405</v>
       </c>
       <c r="C25" s="7">
-        <v>0.178058702653207</v>
+        <v>0.0571841032990136</v>
       </c>
       <c r="D25" s="7">
         <v>0.065654417917276</v>
